--- a/bots/crawl_ch/output/bread_coop_2023-03-02.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-03-02.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4216,13 +4216,13 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Old El Paso Wrap Tortillas 6 Stück 5.45 Schweizer Franken</t>
+          <t>Old El Paso Wrap Tortillas 6 Stück 20% ab 2 Stück Aktion 5.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8364,7 +8364,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10482,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11685,13 +11685,13 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Frischkäse - Online kein Bestand 40% ab 4 Aktion 5.20 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Frischkäse 40% ab 4 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12405,45 +12405,45 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3726487</t>
+          <t>6832128</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-schokolade-8-stueck/p/3726487</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12463,56 +12463,60 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>6832128</t>
+          <t>3726487</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
+          <t>Pasquier Pitch Schokolade 8 Stück</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-schokolade-8-stueck/p/3726487</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E170" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12522,7 +12526,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12532,22 +12536,18 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Pasquier Pitch Schokolade 8 Stück 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13107,7 +13107,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13249,7 +13249,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13387,7 +13387,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13606,45 +13606,45 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>4960272</t>
+          <t>5732887</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales</t>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E186" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13664,56 +13664,60 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N186" t="inlineStr"/>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>5732887</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E187" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.42/100g</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13723,7 +13727,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13733,60 +13737,56 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Bündner Nusstorte 18% Aktion 7.25 Schweizer Franken statt 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>6141017</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2.42/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13811,51 +13811,51 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 18% Aktion 7.25 Schweizer Franken statt 8.95 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>6141017</t>
+          <t>4960272</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
+          <t>Roland Guezli Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E189" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13865,7 +13865,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13875,18 +13875,18 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
+          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15176,7 +15176,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15667,7 +15667,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15882,7 +15882,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18006,45 +18006,45 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>3041946</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Roland Knäckebrot Exquis Sesam</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E248" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18064,12 +18064,12 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -18079,45 +18079,45 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>3041946</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E249" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18137,12 +18137,12 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -18152,7 +18152,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18221,7 +18221,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18294,7 +18294,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18363,7 +18363,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18432,7 +18432,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18501,7 +18501,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18574,7 +18574,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18641,7 +18641,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18710,7 +18710,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18779,7 +18779,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18921,7 +18921,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18990,7 +18990,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19136,7 +19136,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19205,7 +19205,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19278,7 +19278,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19347,7 +19347,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19420,7 +19420,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19489,7 +19489,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19562,7 +19562,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19631,7 +19631,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19704,7 +19704,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19771,7 +19771,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19840,7 +19840,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19907,7 +19907,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19976,7 +19976,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20112,31 +20112,31 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E278" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20160,7 +20160,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20170,42 +20170,42 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E279" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20229,7 +20229,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20239,18 +20239,18 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20323,45 +20323,45 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>3454555</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Prix Garantie Gugelhopf</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>0.48/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20371,7 +20371,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20381,60 +20381,56 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Gugelhopf 1.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3454555</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>0.48/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20444,7 +20440,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20454,18 +20450,22 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf 1.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20534,7 +20534,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20603,7 +20603,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20814,45 +20814,45 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>7014628</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
         </is>
       </c>
       <c r="D288" t="n">
         <v>4</v>
       </c>
       <c r="E288" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>4.94/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20862,7 +20862,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20872,40 +20872,46 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N288" t="inlineStr"/>
+          <t>Dar-Vida Rustico Roggen-Quinoa 40% ab 4 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>4</v>
+      </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -20914,12 +20920,12 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20929,7 +20935,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20939,46 +20945,40 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>26</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
       <c r="E290" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -20987,12 +20987,12 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21002,7 +21002,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21012,56 +21012,60 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N290" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>7014628</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D291" t="n">
+        <v>26</v>
+      </c>
+      <c r="E291" t="n">
         <v>4</v>
       </c>
-      <c r="E291" t="n">
-        <v>5</v>
-      </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>4.94/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21071,7 +21075,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21081,60 +21085,56 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa 40% ab 4 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Panettone 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>3861388</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E292" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Klas</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21154,56 +21154,60 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr"/>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>3861388</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>Klas Jufka Filoteig</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E293" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Klas</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21213,7 +21217,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21223,22 +21227,18 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21376,45 +21376,45 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>5777498</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>Old el Paso Soft Taco Shells Mini</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E296" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>4.10/100g</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21424,7 +21424,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21434,56 +21434,56 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>5777498</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E297" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>4.10/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21493,7 +21493,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21503,18 +21503,18 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21587,7 +21587,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21656,45 +21656,45 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>6882168</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>Leisi Butter-Kuchenteig</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21704,7 +21704,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21714,60 +21714,60 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
+          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6882168</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E301" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21787,22 +21787,22 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
+          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21944,7 +21944,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22013,45 +22013,43 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
       <c r="E305" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22061,7 +22059,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22071,22 +22069,18 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N305" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22155,43 +22149,45 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>7</v>
+      </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22201,7 +22197,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22211,56 +22207,58 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N307" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
-        </is>
-      </c>
-      <c r="D308" t="n">
-        <v>12</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
       <c r="E308" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22270,7 +22268,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22280,54 +22278,60 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N308" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>3</v>
+      </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22337,7 +22341,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22347,60 +22351,56 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N309" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E310" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22410,7 +22410,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22420,35 +22420,35 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6739419</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
@@ -22457,17 +22457,17 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22477,7 +22477,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22487,56 +22487,54 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>6739419</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
-        </is>
-      </c>
-      <c r="D312" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
       <c r="E312" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22546,7 +22544,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22556,54 +22554,56 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>2</v>
+      </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22623,18 +22623,18 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Brossard Zwieback Honig 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22703,7 +22703,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22776,45 +22776,45 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E316" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2.33/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22824,7 +22824,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22834,60 +22834,56 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22897,7 +22893,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22907,18 +22903,22 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N317" t="inlineStr"/>
+          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22987,7 +22987,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23056,7 +23056,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23198,7 +23198,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23267,7 +23267,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23340,35 +23340,33 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
-        </is>
-      </c>
-      <c r="D324" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -23378,7 +23376,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23388,7 +23386,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23398,44 +23396,46 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -23445,7 +23445,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23455,7 +23455,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23465,18 +23465,18 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23545,7 +23545,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23614,28 +23614,28 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>6667340</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E328" t="n">
         <v>3.5</v>
@@ -23647,12 +23647,12 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>2.66/100g</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23662,7 +23662,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23672,43 +23672,39 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>6667340</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Karma Bio Steinofenbrot mit Hanf</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E329" t="n">
         <v>3.5</v>
@@ -23720,12 +23716,12 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2.66/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23735,7 +23731,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23745,18 +23741,22 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N329" t="inlineStr"/>
+          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23825,7 +23825,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23892,7 +23892,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23961,7 +23961,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24034,7 +24034,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24107,7 +24107,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24245,7 +24245,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24318,7 +24318,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24387,7 +24387,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24460,7 +24460,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24669,7 +24669,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24807,7 +24807,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24876,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24945,7 +24945,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25225,45 +25225,45 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E351" t="n">
         <v>3.5</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25273,7 +25273,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25283,56 +25283,60 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N351" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E352" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25342,7 +25346,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25352,60 +25356,56 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D353" t="n">
         <v>3</v>
       </c>
       <c r="E353" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25425,18 +25425,18 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25578,45 +25578,45 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E356" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25626,7 +25626,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25636,56 +25636,56 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E357" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25695,7 +25695,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25705,18 +25705,18 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25785,28 +25785,28 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -25818,12 +25818,12 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25833,7 +25833,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25843,39 +25843,39 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -25887,12 +25887,12 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25902,7 +25902,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25912,18 +25912,18 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26136,7 +26136,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26207,24 +26207,24 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -26235,17 +26235,17 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26255,7 +26255,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26265,56 +26265,60 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr"/>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E366" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26324,7 +26328,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26334,60 +26338,56 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26397,7 +26397,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26407,12 +26407,12 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -26422,7 +26422,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26491,7 +26491,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26558,7 +26558,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26694,7 +26694,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26767,7 +26767,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26836,7 +26836,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26978,7 +26978,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27049,7 +27049,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27118,43 +27118,45 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6515840</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Bauli Croissant Classico 6 Stück</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-classico-6-stueck/p/6515840</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>1</v>
+      </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27164,7 +27166,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27174,56 +27176,54 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Bauli Croissant Classico 6 Stück 2.95 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6515840</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Bauli Croissant Classico 6 Stück</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D379" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-classico-6-stueck/p/6515840</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
       <c r="E379" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27233,7 +27233,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27243,18 +27243,18 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>Bauli Croissant Classico 6 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27321,7 +27321,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27388,7 +27388,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27457,7 +27457,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27524,7 +27524,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27593,7 +27593,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27660,7 +27660,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27727,7 +27727,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27794,7 +27794,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27863,7 +27863,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27930,7 +27930,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28003,7 +28003,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28072,7 +28072,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28139,7 +28139,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28206,7 +28206,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-03-02 12:57:32</t>
+          <t>2023-03-02 20:49:24</t>
         </is>
       </c>
     </row>
